--- a/data/trans_bre/P1404-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1404-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.299448583774394</v>
+        <v>1.084098143748617</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4471866770754443</v>
+        <v>0.1259601132070923</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8304456935819919</v>
+        <v>-0.8710751837560106</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.234080626566518</v>
+        <v>3.143186164187824</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07972949385859301</v>
+        <v>0.06551307929002505</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01700168367358649</v>
+        <v>0.00561922949644504</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.02945465614500987</v>
+        <v>-0.03288270852776903</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1174015578928584</v>
+        <v>0.1081154638141112</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.152881321741572</v>
+        <v>6.824033865619065</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.967753059702456</v>
+        <v>7.29656323037013</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.70237606921352</v>
+        <v>7.75285453072958</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.20171554241193</v>
+        <v>11.78156050309508</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5627155758705493</v>
+        <v>0.5319665058912126</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3992686244505074</v>
+        <v>0.3632492423531416</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3548076182498612</v>
+        <v>0.3580483925653022</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5086733009457102</v>
+        <v>0.5152386660178286</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.4167888702826084</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.081061728214083</v>
+        <v>-1.081061728214082</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06493589817343901</v>
@@ -749,7 +749,7 @@
         <v>0.0536111826619762</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.08635462060772886</v>
+        <v>-0.08635462060772875</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.288048554895981</v>
+        <v>-1.253440747795675</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.066086568423607</v>
+        <v>-1.813226893353593</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.291653619777033</v>
+        <v>-1.304816212415953</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.047383405854341</v>
+        <v>-2.843119471669278</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2208798631910485</v>
+        <v>-0.2092778779782516</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2700995697829198</v>
+        <v>-0.2332405620283038</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1522652924359926</v>
+        <v>-0.1489042593582063</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2275945051415889</v>
+        <v>-0.2108531783173326</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.00150423325185</v>
+        <v>1.949545917989449</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.619731829166046</v>
+        <v>1.620994624756509</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.27109158971605</v>
+        <v>2.199164809839945</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5422500497584084</v>
+        <v>0.7561825065803339</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.451184024791481</v>
+        <v>0.4489393807548773</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2738631074114053</v>
+        <v>0.2646090548756959</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3378355984828146</v>
+        <v>0.3161685455636774</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04728875796524171</v>
+        <v>0.06814823061113781</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.195014944841438</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3646919838231413</v>
+        <v>0.3646919838231441</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.079225445167173</v>
@@ -849,7 +849,7 @@
         <v>-0.2598868650958797</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.03107195009842085</v>
+        <v>0.03107195009842109</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.056633738237222</v>
+        <v>-2.741864375144722</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.373031667275328</v>
+        <v>-6.796773284126586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.67191668327872</v>
+        <v>-5.80100521494703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.710445007379078</v>
+        <v>-2.507399974651359</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5131326302583979</v>
+        <v>-0.4954410782526148</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7451413778284226</v>
+        <v>-0.705732880022281</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5560007187413843</v>
+        <v>-0.5680461874814542</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.201157939437791</v>
+        <v>-0.1910127003272707</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.124076900865805</v>
+        <v>2.384624584160545</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.384758214978354</v>
+        <v>-0.04970263163101418</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.294386780555216</v>
+        <v>1.151856009234727</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.321751783667326</v>
+        <v>3.500360872676517</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6259670617447133</v>
+        <v>0.7401117165465778</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.02871741856524053</v>
+        <v>0.04305489921576595</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.216676343748532</v>
+        <v>0.1944955234793566</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3174786426978065</v>
+        <v>0.3513895358059436</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.839977841383501</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.696232933809025</v>
+        <v>1.69623293380903</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2999192547102843</v>
@@ -949,7 +949,7 @@
         <v>0.1607276574472345</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1177442426564734</v>
+        <v>0.1177442426564738</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.072409995092105</v>
+        <v>0.9406526449914743</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.780901435252645</v>
+        <v>0.9230886231647712</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2100899570529296</v>
+        <v>0.2903957386929689</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2726432832638396</v>
+        <v>0.185247944183253</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1213083673189235</v>
+        <v>0.1083879776710829</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06448543071441994</v>
+        <v>0.07572294082199753</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01465182839151074</v>
+        <v>0.02665804845823211</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01843236471613848</v>
+        <v>0.01221396019534622</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.765359978419092</v>
+        <v>3.806988073618496</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.099832190060712</v>
+        <v>4.08870763684997</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.43927946825732</v>
+        <v>3.503377680149289</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.051876627881703</v>
+        <v>3.133021112601636</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5225008895514013</v>
+        <v>0.5284452320035327</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3864748809919279</v>
+        <v>0.3888214846027767</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3160273486549097</v>
+        <v>0.3245176302883484</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2277533058957975</v>
+        <v>0.2303226118238001</v>
       </c>
     </row>
     <row r="16">
